--- a/assessments/Assingment1 - Marking Guide.xlsx
+++ b/assessments/Assingment1 - Marking Guide.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jk11/Downloads/old 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jk11/Courses/COMP6215-Course-Material/assessments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31081F7B-AE4D-EF43-B4F2-019F976F0BD6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E37327-3C5B-134D-B94B-2A3674DC2DCE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660" xr2:uid="{8886690B-4AB6-424F-AC2D-6AC89BC6B750}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="47">
   <si>
     <t>COMP.6215 – GUI Programming</t>
   </si>
@@ -150,13 +150,28 @@
     <t>There has been a lot of thought on how good your application looks</t>
   </si>
   <si>
-    <t>Task 1 (32 marks)</t>
-  </si>
-  <si>
-    <t>Task 2 (64 marks)</t>
-  </si>
-  <si>
-    <t>Task 3 (32 marks)</t>
+    <t>Assignment Brief has been met</t>
+  </si>
+  <si>
+    <t>You have submitted nothing</t>
+  </si>
+  <si>
+    <t>Some (Less than 50%) of the criteria have been met.</t>
+  </si>
+  <si>
+    <t>Some (Less than 80%) of the criteria have been met.</t>
+  </si>
+  <si>
+    <t>All of the criteria have been met.</t>
+  </si>
+  <si>
+    <t>Task 1 (36 marks)</t>
+  </si>
+  <si>
+    <t>Task 2 (72 marks)</t>
+  </si>
+  <si>
+    <t>Task 3 (36 marks)</t>
   </si>
 </sst>
 </file>
@@ -611,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7865223C-3863-C242-85BE-0879F922491F}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScale="99" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -642,7 +657,7 @@
     </row>
     <row r="4" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -793,9 +808,26 @@
         <v>38</v>
       </c>
     </row>
+    <row r="13" spans="1:5" ht="88" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="15" spans="1:5" ht="25" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B15" s="4">
         <v>0</v>
@@ -946,9 +978,26 @@
         <v>38</v>
       </c>
     </row>
+    <row r="24" spans="1:5" ht="88" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="26" spans="1:5" ht="25" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B26" s="4">
         <v>0</v>
@@ -1097,6 +1146,23 @@
       </c>
       <c r="E34" s="5" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="88" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
